--- a/pred_ohlcv/54_21/2020-01-23 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 PIVX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-30707.04128159002</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-39150.64208159002</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-63580.55778159001</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-77427.11234985001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-61417.55011602001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-61417.55011602001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-61373.05011602001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-61373.05011602001</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-61003.98241602002</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-61003.98241602002</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-61003.98241602002</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-61949.69861602002</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-56775.69861602002</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-56775.69861602002</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-56775.69861602002</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-56775.69861602002</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-58596.46321602002</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-65399.35051602001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-65806.35051602001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-65806.35051602001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-65806.35051602001</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-68714.30511602001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-79283.90741602001</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-79283.90741602001</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-80662.12691602002</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-79183.90731602002</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-80384.47941602003</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-80384.47941602003</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-83744.47941602003</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-83740.47941602003</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-89809.34471602003</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-89215.62871602003</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 PIVX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-30707.04128159002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-60722.04524985002</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-60722.04524985002</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-64052.04194985002</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-66713.17424985002</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-77427.11234985001</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-61417.55011602001</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-61417.55011602001</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-61373.05011602001</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-61373.05011602001</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-61003.98241602002</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-61003.98241602002</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-61003.98241602002</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-61949.69861602002</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-56775.69861602002</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-56775.69861602002</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-56775.69861602002</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-56775.69861602002</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-58596.46321602002</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-65399.35051602001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-65806.35051602001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-65806.35051602001</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-65806.35051602001</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-68714.30511602001</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-79183.90731602002</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-83744.47941602003</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-83740.47941602003</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-89809.34471602003</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-89215.62871602003</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-89115.62871602003</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
